--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2131.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2131.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
+        <v>0.6712798476219177</v>
+      </c>
+      <c r="B1">
+        <v>1.462276935577393</v>
+      </c>
+      <c r="C1">
         <v>-1</v>
       </c>
-      <c r="B1">
-        <v>1.968115608489188</v>
-      </c>
-      <c r="C1">
-        <v>1.069317377172514</v>
-      </c>
       <c r="D1">
-        <v>0.8488147476192802</v>
+        <v>2.331178665161133</v>
       </c>
       <c r="E1">
-        <v>0.7945227611617838</v>
+        <v>1.386141538619995</v>
       </c>
     </row>
   </sheetData>
